--- a/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,561 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P8_Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P8_Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P11_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P11_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P24_Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P24_Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P8_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P8_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F3_P27_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F3_P27_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1_P12_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P12_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F2_P14_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P14_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Martin &amp; Salomon_2003_OrgSci_Tacitness Learning and International Expansion.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1_P9_Martin &amp; Salomon_2003_OrgSci_Tacitness Learning and International Expansion.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P9_Martin &amp; Salomon_2003_OrgSci_Tacitness Learning and International Expansion.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F2_P6_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P6_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P3_Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P3_Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1_P2_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P2_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F2_P3_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P3_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F3_P9_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F3_P9_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P10_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P10_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F3_P12_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F3_P12_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,228 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F1_P4_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P4_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P6_Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P6_Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P2_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P2_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F1_P10_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P10_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F1_P2_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P2_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F1_P9_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P9_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -843,7 +843,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I11" t="b">

--- a/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2003_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -769,11 +743,8 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -809,9 +780,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1065,11 +1015,8 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1213,11 +1151,8 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1252,9 +1187,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
